--- a/Code/Results/Cases/Case_0_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_253/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.549915857406282</v>
+        <v>5.432019178035625</v>
       </c>
       <c r="D2">
-        <v>18.32581902858699</v>
+        <v>14.37994989851532</v>
       </c>
       <c r="E2">
-        <v>6.873441497283143</v>
+        <v>10.96708249694551</v>
       </c>
       <c r="F2">
-        <v>105.5969706034133</v>
+        <v>70.82778022071059</v>
       </c>
       <c r="G2">
-        <v>1.749721608179727</v>
+        <v>3.773156791655477</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>80.89792039803271</v>
+        <v>57.37688974334938</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.288266240448777</v>
+        <v>10.30711645587361</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.967842323767423</v>
+        <v>5.332389464645185</v>
       </c>
       <c r="D3">
-        <v>16.27123621604049</v>
+        <v>14.20838952785988</v>
       </c>
       <c r="E3">
-        <v>6.617242329710525</v>
+        <v>11.00335940245324</v>
       </c>
       <c r="F3">
-        <v>94.15650677140242</v>
+        <v>69.33793411521448</v>
       </c>
       <c r="G3">
-        <v>1.831188240044957</v>
+        <v>3.786283588379932</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>72.10118478361211</v>
+        <v>56.39056763191365</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.878092754316301</v>
+        <v>10.32880045711227</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.650281810226352</v>
+        <v>5.269859457617482</v>
       </c>
       <c r="D4">
-        <v>15.2503262726049</v>
+        <v>14.10867205384716</v>
       </c>
       <c r="E4">
-        <v>6.500011056562474</v>
+        <v>11.0283192986658</v>
       </c>
       <c r="F4">
-        <v>87.84961407060676</v>
+        <v>68.44323962109632</v>
       </c>
       <c r="G4">
-        <v>1.873931637839905</v>
+        <v>3.794683062915859</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>67.25153052269388</v>
+        <v>55.80438599385785</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.676608179870152</v>
+        <v>10.34498935555647</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.526169051494795</v>
+        <v>5.244044124759069</v>
       </c>
       <c r="D5">
-        <v>14.85810189642906</v>
+        <v>14.06946847375148</v>
       </c>
       <c r="E5">
-        <v>6.45891144970126</v>
+        <v>11.03916136935748</v>
       </c>
       <c r="F5">
-        <v>85.37318066894724</v>
+        <v>68.08410711132494</v>
       </c>
       <c r="G5">
-        <v>1.890323774606589</v>
+        <v>3.798192345767764</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>65.3470755458401</v>
+        <v>55.5706134328456</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.602713629468935</v>
+        <v>10.35230219779439</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.505797020227609</v>
+        <v>5.239737570217001</v>
       </c>
       <c r="D6">
-        <v>14.79389912265894</v>
+        <v>14.06304571961457</v>
       </c>
       <c r="E6">
-        <v>6.452428229768866</v>
+        <v>11.04100206297787</v>
       </c>
       <c r="F6">
-        <v>84.96609925843399</v>
+        <v>68.02481530256932</v>
       </c>
       <c r="G6">
-        <v>1.892998017787633</v>
+        <v>3.798780309588759</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>65.03400082879604</v>
+        <v>55.53210987006793</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.590859764303312</v>
+        <v>10.3535595097923</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.648590537819197</v>
+        <v>5.26951264464301</v>
       </c>
       <c r="D7">
-        <v>15.2449694641593</v>
+        <v>14.10813752009759</v>
       </c>
       <c r="E7">
-        <v>6.499432711225453</v>
+        <v>11.02846280895862</v>
       </c>
       <c r="F7">
-        <v>87.81591035134053</v>
+        <v>68.43837357469901</v>
       </c>
       <c r="G7">
-        <v>1.874156174803287</v>
+        <v>3.794730039022275</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>67.22561234208126</v>
+        <v>55.80121232316964</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.675582189154107</v>
+        <v>10.34508509053122</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6.336678942978629</v>
+        <v>5.39795273141107</v>
       </c>
       <c r="D8">
-        <v>17.57524878500532</v>
+        <v>14.31964132930891</v>
       </c>
       <c r="E8">
-        <v>6.773758222137327</v>
+        <v>10.97903052001505</v>
       </c>
       <c r="F8">
-        <v>101.4250428043443</v>
+        <v>70.31016472982091</v>
       </c>
       <c r="G8">
-        <v>1.780043940465656</v>
+        <v>3.777613069899678</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>77.68996404498016</v>
+        <v>57.03290791136889</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.132396942341196</v>
+        <v>10.31399209573153</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.336678942978629</v>
+        <v>5.63876833109739</v>
       </c>
       <c r="D9">
-        <v>17.57524878500532</v>
+        <v>14.77804291066448</v>
       </c>
       <c r="E9">
-        <v>6.773758222137327</v>
+        <v>10.90361980359431</v>
       </c>
       <c r="F9">
-        <v>101.4250428043443</v>
+        <v>74.12171597412348</v>
       </c>
       <c r="G9">
-        <v>1.780043940465656</v>
+        <v>3.74669245571609</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>77.68996404498016</v>
+        <v>59.59241257954812</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.132396942341196</v>
+        <v>10.27615572341374</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>6.336678942978629</v>
+        <v>5.808627047943044</v>
       </c>
       <c r="D10">
-        <v>17.57524878500532</v>
+        <v>15.139995434105</v>
       </c>
       <c r="E10">
-        <v>6.773758222137327</v>
+        <v>10.86164768903892</v>
       </c>
       <c r="F10">
-        <v>101.4250428043443</v>
+        <v>76.98386661284061</v>
       </c>
       <c r="G10">
-        <v>1.780043940465656</v>
+        <v>3.7255180376241</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>77.68996404498016</v>
+        <v>61.5471405871691</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.132396942341196</v>
+        <v>10.26291940535086</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.336678942978629</v>
+        <v>5.884311007906753</v>
       </c>
       <c r="D11">
-        <v>17.57524878500532</v>
+        <v>15.30977916409764</v>
       </c>
       <c r="E11">
-        <v>6.773758222137327</v>
+        <v>10.84554068159732</v>
       </c>
       <c r="F11">
-        <v>101.4250428043443</v>
+        <v>78.29449542027712</v>
       </c>
       <c r="G11">
-        <v>1.780043940465656</v>
+        <v>3.716204406039622</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>77.68996404498016</v>
+        <v>62.44964211473813</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.132396942341196</v>
+        <v>10.26016049763666</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>6.336678942978629</v>
+        <v>5.912738822996799</v>
       </c>
       <c r="D12">
-        <v>17.57524878500532</v>
+        <v>15.37477905394099</v>
       </c>
       <c r="E12">
-        <v>6.773758222137327</v>
+        <v>10.83987690490885</v>
       </c>
       <c r="F12">
-        <v>101.4250428043443</v>
+        <v>78.79165728588407</v>
       </c>
       <c r="G12">
-        <v>1.780043940465656</v>
+        <v>3.712722064660809</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>77.68996404498016</v>
+        <v>62.79307245729152</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.132396942341196</v>
+        <v>10.25959328643983</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6.336678942978629</v>
+        <v>5.906626760583795</v>
       </c>
       <c r="D13">
-        <v>17.57524878500532</v>
+        <v>15.36074924082883</v>
       </c>
       <c r="E13">
-        <v>6.773758222137327</v>
+        <v>10.84107722637074</v>
       </c>
       <c r="F13">
-        <v>101.4250428043443</v>
+        <v>78.68455239002643</v>
       </c>
       <c r="G13">
-        <v>1.780043940465656</v>
+        <v>3.713470090079768</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>77.68996404498016</v>
+        <v>62.71903787350963</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.132396942341196</v>
+        <v>10.2596940717787</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>6.336678942978629</v>
+        <v>5.886654452309563</v>
       </c>
       <c r="D14">
-        <v>17.57524878500532</v>
+        <v>15.31511276413481</v>
       </c>
       <c r="E14">
-        <v>6.773758222137327</v>
+        <v>10.84506595304103</v>
       </c>
       <c r="F14">
-        <v>101.4250428043443</v>
+        <v>78.33538219626217</v>
       </c>
       <c r="G14">
-        <v>1.780043940465656</v>
+        <v>3.715917026949872</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>77.68996404498016</v>
+        <v>62.47786413950161</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.132396942341196</v>
+        <v>10.26010421374447</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.336678942978629</v>
+        <v>5.87439051035775</v>
       </c>
       <c r="D15">
-        <v>17.57524878500532</v>
+        <v>15.28725018157193</v>
       </c>
       <c r="E15">
-        <v>6.773758222137327</v>
+        <v>10.84756607824766</v>
       </c>
       <c r="F15">
-        <v>101.4250428043443</v>
+        <v>78.12160577313375</v>
       </c>
       <c r="G15">
-        <v>1.780043940465656</v>
+        <v>3.717421605816865</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>77.68996404498016</v>
+        <v>62.33034920267095</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.132396942341196</v>
+        <v>10.26041787791935</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>6.336678942978629</v>
+        <v>5.803648651160753</v>
       </c>
       <c r="D16">
-        <v>17.57524878500532</v>
+        <v>15.12900023081716</v>
       </c>
       <c r="E16">
-        <v>6.773758222137327</v>
+        <v>10.86276093394287</v>
       </c>
       <c r="F16">
-        <v>101.4250428043443</v>
+        <v>76.89835396568829</v>
       </c>
       <c r="G16">
-        <v>1.780043940465656</v>
+        <v>3.726133008653716</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>77.68996404498016</v>
+        <v>61.48840677312067</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.132396942341196</v>
+        <v>10.26316606818449</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.336678942978629</v>
+        <v>5.759841550375574</v>
       </c>
       <c r="D17">
-        <v>17.57524878500532</v>
+        <v>15.03321076014092</v>
       </c>
       <c r="E17">
-        <v>6.773758222137327</v>
+        <v>10.8728516657872</v>
       </c>
       <c r="F17">
-        <v>101.4250428043443</v>
+        <v>76.14985520502243</v>
       </c>
       <c r="G17">
-        <v>1.780043940465656</v>
+        <v>3.731557893447001</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.68996404498016</v>
+        <v>60.97513290380826</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.132396942341196</v>
+        <v>10.26569349159999</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.336678942978629</v>
+        <v>5.734495808646455</v>
       </c>
       <c r="D18">
-        <v>17.57524878500532</v>
+        <v>14.97859992446948</v>
       </c>
       <c r="E18">
-        <v>6.773758222137327</v>
+        <v>10.8789362909148</v>
       </c>
       <c r="F18">
-        <v>101.4250428043443</v>
+        <v>75.72017159862874</v>
       </c>
       <c r="G18">
-        <v>1.780043940465656</v>
+        <v>3.734708223949958</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.68996404498016</v>
+        <v>60.68117561248558</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.132396942341196</v>
+        <v>10.26745375574011</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.336678942978629</v>
+        <v>5.725888712569779</v>
       </c>
       <c r="D19">
-        <v>17.57524878500532</v>
+        <v>14.96019383336776</v>
       </c>
       <c r="E19">
-        <v>6.773758222137327</v>
+        <v>10.88104446745453</v>
       </c>
       <c r="F19">
-        <v>101.4250428043443</v>
+        <v>75.57484333479323</v>
       </c>
       <c r="G19">
-        <v>1.780043940465656</v>
+        <v>3.735780076850468</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.68996404498016</v>
+        <v>60.58187127160377</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.132396942341196</v>
+        <v>10.26810214892986</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.336678942978629</v>
+        <v>5.764520349767831</v>
       </c>
       <c r="D20">
-        <v>17.57524878500532</v>
+        <v>15.04335776994079</v>
       </c>
       <c r="E20">
-        <v>6.773758222137327</v>
+        <v>10.87174839455786</v>
       </c>
       <c r="F20">
-        <v>101.4250428043443</v>
+        <v>76.22945082397895</v>
       </c>
       <c r="G20">
-        <v>1.780043940465656</v>
+        <v>3.730977301271968</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>77.68996404498016</v>
+        <v>61.02964269254161</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.132396942341196</v>
+        <v>10.26539265522102</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>6.336678942978629</v>
+        <v>5.892527129408299</v>
       </c>
       <c r="D21">
-        <v>17.57524878500532</v>
+        <v>15.32849837882451</v>
       </c>
       <c r="E21">
-        <v>6.773758222137327</v>
+        <v>10.8438824949486</v>
       </c>
       <c r="F21">
-        <v>101.4250428043443</v>
+        <v>78.43792167113951</v>
       </c>
       <c r="G21">
-        <v>1.780043940465656</v>
+        <v>3.715197104429669</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>77.68996404498016</v>
+        <v>62.54865916112514</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.132396942341196</v>
+        <v>10.25997071735792</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6.336678942978629</v>
+        <v>5.974833081525163</v>
       </c>
       <c r="D22">
-        <v>17.57524878500532</v>
+        <v>15.51895775614673</v>
       </c>
       <c r="E22">
-        <v>6.773758222137327</v>
+        <v>10.82821255722231</v>
       </c>
       <c r="F22">
-        <v>101.4250428043443</v>
+        <v>79.88611074695231</v>
       </c>
       <c r="G22">
-        <v>1.780043940465656</v>
+        <v>3.705142737028933</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>77.68996404498016</v>
+        <v>63.55107119365342</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.132396942341196</v>
+        <v>10.25921458415212</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>6.336678942978629</v>
+        <v>5.931029840813753</v>
       </c>
       <c r="D23">
-        <v>17.57524878500532</v>
+        <v>15.41694081853088</v>
       </c>
       <c r="E23">
-        <v>6.773758222137327</v>
+        <v>10.83634119766244</v>
       </c>
       <c r="F23">
-        <v>101.4250428043443</v>
+        <v>79.11286349355343</v>
       </c>
       <c r="G23">
-        <v>1.780043940465656</v>
+        <v>3.710485697192259</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>77.68996404498016</v>
+        <v>63.01525805303071</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.132396942341196</v>
+        <v>10.25936027710261</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>6.336678942978629</v>
+        <v>5.762405564028961</v>
       </c>
       <c r="D24">
-        <v>17.57524878500532</v>
+        <v>15.03876887224684</v>
       </c>
       <c r="E24">
-        <v>6.773758222137327</v>
+        <v>10.87224630143796</v>
       </c>
       <c r="F24">
-        <v>101.4250428043443</v>
+        <v>76.19346362697245</v>
       </c>
       <c r="G24">
-        <v>1.780043940465656</v>
+        <v>3.731239688805582</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.68996404498016</v>
+        <v>61.00499527701152</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.132396942341196</v>
+        <v>10.26552770707671</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>6.336678942978629</v>
+        <v>5.574841451092843</v>
       </c>
       <c r="D25">
-        <v>17.57524878500532</v>
+        <v>14.64950132746593</v>
       </c>
       <c r="E25">
-        <v>6.773758222137327</v>
+        <v>10.92168464148548</v>
       </c>
       <c r="F25">
-        <v>101.4250428043443</v>
+        <v>73.07802671780134</v>
       </c>
       <c r="G25">
-        <v>1.780043940465656</v>
+        <v>3.754781139304675</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>77.68996404498016</v>
+        <v>58.88596542044946</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.132396942341196</v>
+        <v>10.28386766157646</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_253/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.432019178035625</v>
+        <v>6.549915857406178</v>
       </c>
       <c r="D2">
-        <v>14.37994989851532</v>
+        <v>18.32581902858694</v>
       </c>
       <c r="E2">
-        <v>10.96708249694551</v>
+        <v>6.873441497283171</v>
       </c>
       <c r="F2">
-        <v>70.82778022071059</v>
+        <v>105.5969706034135</v>
       </c>
       <c r="G2">
-        <v>3.773156791655477</v>
+        <v>1.749721608179665</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>57.37688974334938</v>
+        <v>80.89792039803291</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.30711645587361</v>
+        <v>7.288266240448806</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.332389464645185</v>
+        <v>5.967842323767285</v>
       </c>
       <c r="D3">
-        <v>14.20838952785988</v>
+        <v>16.27123621604017</v>
       </c>
       <c r="E3">
-        <v>11.00335940245324</v>
+        <v>6.617242329710516</v>
       </c>
       <c r="F3">
-        <v>69.33793411521448</v>
+        <v>94.15650677140094</v>
       </c>
       <c r="G3">
-        <v>3.786283588379932</v>
+        <v>1.831188240044973</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>56.39056763191365</v>
+        <v>72.10118478361099</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.32880045711227</v>
+        <v>6.878092754316303</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.269859457617482</v>
+        <v>5.650281810226437</v>
       </c>
       <c r="D4">
-        <v>14.10867205384716</v>
+        <v>15.25032627260494</v>
       </c>
       <c r="E4">
-        <v>11.0283192986658</v>
+        <v>6.500011056562497</v>
       </c>
       <c r="F4">
-        <v>68.44323962109632</v>
+        <v>87.84961407060705</v>
       </c>
       <c r="G4">
-        <v>3.794683062915859</v>
+        <v>1.8739316378399</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>55.80438599385785</v>
+        <v>67.25153052269415</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.34498935555647</v>
+        <v>6.676608179870139</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.244044124759069</v>
+        <v>5.526169051495038</v>
       </c>
       <c r="D5">
-        <v>14.06946847375148</v>
+        <v>14.85810189642912</v>
       </c>
       <c r="E5">
-        <v>11.03916136935748</v>
+        <v>6.458911449701259</v>
       </c>
       <c r="F5">
-        <v>68.08410711132494</v>
+        <v>85.37318066894753</v>
       </c>
       <c r="G5">
-        <v>3.798192345767764</v>
+        <v>1.890323774606471</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>55.5706134328456</v>
+        <v>65.34707554584031</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.35230219779439</v>
+        <v>6.602713629468942</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.239737570217001</v>
+        <v>5.505797020227562</v>
       </c>
       <c r="D6">
-        <v>14.06304571961457</v>
+        <v>14.79389912265883</v>
       </c>
       <c r="E6">
-        <v>11.04100206297787</v>
+        <v>6.452428229768866</v>
       </c>
       <c r="F6">
-        <v>68.02481530256932</v>
+        <v>84.96609925843325</v>
       </c>
       <c r="G6">
-        <v>3.798780309588759</v>
+        <v>1.892998017787909</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>55.53210987006793</v>
+        <v>65.03400082879548</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.3535595097923</v>
+        <v>6.5908597643033</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.26951264464301</v>
+        <v>5.648590537819076</v>
       </c>
       <c r="D7">
-        <v>14.10813752009759</v>
+        <v>15.24496946415943</v>
       </c>
       <c r="E7">
-        <v>11.02846280895862</v>
+        <v>6.499432711225427</v>
       </c>
       <c r="F7">
-        <v>68.43837357469901</v>
+        <v>87.81591035134126</v>
       </c>
       <c r="G7">
-        <v>3.794730039022275</v>
+        <v>1.874156174803389</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>55.80121232316964</v>
+        <v>67.2256123420818</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.34508509053122</v>
+        <v>6.67558218915407</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.39795273141107</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D8">
-        <v>14.31964132930891</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E8">
-        <v>10.97903052001505</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F8">
-        <v>70.31016472982091</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G8">
-        <v>3.777613069899678</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>57.03290791136889</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.31399209573153</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.63876833109739</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D9">
-        <v>14.77804291066448</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E9">
-        <v>10.90361980359431</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F9">
-        <v>74.12171597412348</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G9">
-        <v>3.74669245571609</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>59.59241257954812</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.27615572341374</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.808627047943044</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D10">
-        <v>15.139995434105</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E10">
-        <v>10.86164768903892</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F10">
-        <v>76.98386661284061</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G10">
-        <v>3.7255180376241</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>61.5471405871691</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.26291940535086</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.884311007906753</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D11">
-        <v>15.30977916409764</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E11">
-        <v>10.84554068159732</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F11">
-        <v>78.29449542027712</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G11">
-        <v>3.716204406039622</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>62.44964211473813</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.26016049763666</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.912738822996799</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D12">
-        <v>15.37477905394099</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E12">
-        <v>10.83987690490885</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F12">
-        <v>78.79165728588407</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G12">
-        <v>3.712722064660809</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>62.79307245729152</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.25959328643983</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.906626760583795</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D13">
-        <v>15.36074924082883</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E13">
-        <v>10.84107722637074</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F13">
-        <v>78.68455239002643</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G13">
-        <v>3.713470090079768</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>62.71903787350963</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.2596940717787</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.886654452309563</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D14">
-        <v>15.31511276413481</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E14">
-        <v>10.84506595304103</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F14">
-        <v>78.33538219626217</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G14">
-        <v>3.715917026949872</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>62.47786413950161</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.26010421374447</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.87439051035775</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D15">
-        <v>15.28725018157193</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E15">
-        <v>10.84756607824766</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F15">
-        <v>78.12160577313375</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G15">
-        <v>3.717421605816865</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>62.33034920267095</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.26041787791935</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.803648651160753</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D16">
-        <v>15.12900023081716</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E16">
-        <v>10.86276093394287</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F16">
-        <v>76.89835396568829</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G16">
-        <v>3.726133008653716</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>61.48840677312067</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.26316606818449</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.759841550375574</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D17">
-        <v>15.03321076014092</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E17">
-        <v>10.8728516657872</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F17">
-        <v>76.14985520502243</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G17">
-        <v>3.731557893447001</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>60.97513290380826</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.26569349159999</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.734495808646455</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D18">
-        <v>14.97859992446948</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E18">
-        <v>10.8789362909148</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F18">
-        <v>75.72017159862874</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G18">
-        <v>3.734708223949958</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>60.68117561248558</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.26745375574011</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.725888712569779</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D19">
-        <v>14.96019383336776</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E19">
-        <v>10.88104446745453</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F19">
-        <v>75.57484333479323</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G19">
-        <v>3.735780076850468</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>60.58187127160377</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.26810214892986</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.764520349767831</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D20">
-        <v>15.04335776994079</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E20">
-        <v>10.87174839455786</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F20">
-        <v>76.22945082397895</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G20">
-        <v>3.730977301271968</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>61.02964269254161</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.26539265522102</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.892527129408299</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D21">
-        <v>15.32849837882451</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E21">
-        <v>10.8438824949486</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F21">
-        <v>78.43792167113951</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G21">
-        <v>3.715197104429669</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>62.54865916112514</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.25997071735792</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.974833081525163</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D22">
-        <v>15.51895775614673</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E22">
-        <v>10.82821255722231</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F22">
-        <v>79.88611074695231</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G22">
-        <v>3.705142737028933</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>63.55107119365342</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.25921458415212</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.931029840813753</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D23">
-        <v>15.41694081853088</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E23">
-        <v>10.83634119766244</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F23">
-        <v>79.11286349355343</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G23">
-        <v>3.710485697192259</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>63.01525805303071</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.25936027710261</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.762405564028961</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D24">
-        <v>15.03876887224684</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E24">
-        <v>10.87224630143796</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F24">
-        <v>76.19346362697245</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G24">
-        <v>3.731239688805582</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>61.00499527701152</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.26552770707671</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.574841451092843</v>
+        <v>6.336678942978757</v>
       </c>
       <c r="D25">
-        <v>14.64950132746593</v>
+        <v>17.5752487850054</v>
       </c>
       <c r="E25">
-        <v>10.92168464148548</v>
+        <v>6.77375822213732</v>
       </c>
       <c r="F25">
-        <v>73.07802671780134</v>
+        <v>101.4250428043446</v>
       </c>
       <c r="G25">
-        <v>3.754781139304675</v>
+        <v>1.780043940465506</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>58.88596542044946</v>
+        <v>77.68996404498041</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.28386766157646</v>
+        <v>7.132396942341225</v>
       </c>
       <c r="O25">
         <v>0</v>
